--- a/Reports/MAC_Manual.xlsx
+++ b/Reports/MAC_Manual.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -29,73 +29,25 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
-    <t>Basic_005</t>
+    <t>Manual_002</t>
   </si>
   <si>
-    <t>SafariTest</t>
+    <t>Safari manual</t>
   </si>
   <si>
-    <t>Tests/MacOS/automation/basic/SafariTest.MD</t>
+    <t>Tests/MacOS/manual/SafariManualTest.MD</t>
   </si>
   <si>
-    <t>12/21/21 14:06:47</t>
-  </si>
-  <si>
-    <t>Not executed</t>
-  </si>
-  <si>
-    <t>Remote_004</t>
-  </si>
-  <si>
-    <t>RemoteWebRtcFirefoxTest</t>
-  </si>
-  <si>
-    <t>Tests/MacOS/automation/remote/RemoteWebRtcFirefoxTest.MD</t>
-  </si>
-  <si>
-    <t>12/21/21 14:12:54</t>
-  </si>
-  <si>
-    <t>Remote_003</t>
-  </si>
-  <si>
-    <t>RemoteTest</t>
-  </si>
-  <si>
-    <t>Tests/MacOS/automation/remote/RemoteTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_001</t>
-  </si>
-  <si>
-    <t>AndroidTest</t>
-  </si>
-  <si>
-    <t>Tests/MacOS/automation/remote/AndroidTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_002</t>
-  </si>
-  <si>
-    <t>AppiumTest</t>
-  </si>
-  <si>
-    <t>Tests/MacOS/automation/remote/AppiumTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_005</t>
-  </si>
-  <si>
-    <t>SaucelabsTest</t>
-  </si>
-  <si>
-    <t>Tests/MacOS/automation/remote/SaucelabsTest.MD</t>
+    <t>12/22/21 14:06:47</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -146,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -186,119 +138,42 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
